--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -420,8 +420,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Day Name</t>
@@ -473,7 +484,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="40" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -494,25 +505,18 @@
           <t>CH21208NC311</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>CH21202NC311</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
-    <row r="3">
+    <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>CH21202NC311</t>
@@ -543,9 +547,8 @@
           <t>CH29202NC421</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
     </row>
-    <row r="4">
+    <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>Wed</t>
@@ -566,18 +569,13 @@
           <t>CH21204NC311</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>CH21206NC311</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
-    <row r="5">
+    <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>Thur</t>
@@ -603,19 +601,13 @@
           <t>CH21206NC311</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
     </row>
-    <row r="6">
+    <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>CH21206NC311</t>
@@ -651,7 +643,6 @@
           <t>CH29202NC421</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
